--- a/docs/influence/auto/joy/gw_full_nlp_n5-25_oter_joy_NN.xlsx
+++ b/docs/influence/auto/joy/gw_full_nlp_n5-25_oter_joy_NN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/cat/Users/dend/prog/say_sila/docs/influence/auto/joy/csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{71CD8EBA-D23F-A643-A766-E3590B921609}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{E0092B36-43AB-E642-BA4B-BF6C161AB061}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60260" yWindow="8200" windowWidth="32700" windowHeight="16940"/>
+    <workbookView xWindow="5420" yWindow="9340" windowWidth="32760" windowHeight="16940"/>
   </bookViews>
   <sheets>
     <sheet name="gw_full_nlp_n5-25_oter_joy_NN" sheetId="1" r:id="rId1"/>
@@ -943,7 +943,7 @@
   <dimension ref="A1:W22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD15"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1033,19 +1033,16 @@
         <v>25</v>
       </c>
       <c r="E2">
-        <v>0.26431399999999999</v>
+        <v>0.36216399999999999</v>
       </c>
       <c r="F2">
         <v>39</v>
       </c>
-      <c r="J2">
-        <v>0.214366</v>
-      </c>
       <c r="T2">
-        <v>-0.16020599999999999</v>
+        <v>-0.18571699999999999</v>
       </c>
       <c r="W2">
-        <v>0.19888600000000001</v>
+        <v>0.30244100000000002</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
@@ -1062,16 +1059,16 @@
         <v>25</v>
       </c>
       <c r="E3">
-        <v>0.32757599999999998</v>
+        <v>0.41289999999999999</v>
       </c>
       <c r="F3">
         <v>39</v>
       </c>
       <c r="T3">
-        <v>-0.18202599999999999</v>
+        <v>-0.204987</v>
       </c>
       <c r="W3">
-        <v>0.30534099999999997</v>
+        <v>0.30897599999999997</v>
       </c>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1088,86 +1085,86 @@
         <v>25</v>
       </c>
       <c r="E4" s="1">
-        <v>0.77653399999999995</v>
+        <v>0.77787200000000001</v>
       </c>
       <c r="F4" s="1">
         <v>39</v>
       </c>
       <c r="H4" s="1">
-        <v>0.21108199999999999</v>
+        <v>0.21196200000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.39338099999999998</v>
+        <v>0.37908599999999998</v>
       </c>
       <c r="T4" s="1">
-        <v>-9.1333999999999999E-2</v>
+        <v>-9.3099000000000001E-2</v>
       </c>
       <c r="W4" s="1">
-        <v>5.7435E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A5">
+        <v>6.3551999999999997E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5">
-        <v>0.64229499999999995</v>
-      </c>
-      <c r="F5">
-        <v>39</v>
-      </c>
-      <c r="H5">
-        <v>0.25437399999999999</v>
-      </c>
-      <c r="J5">
-        <v>0.31904700000000003</v>
-      </c>
-      <c r="T5">
-        <v>-9.1934000000000002E-2</v>
-      </c>
-      <c r="W5">
-        <v>8.0779000000000004E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+      <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.66364900000000004</v>
+      </c>
+      <c r="F5" s="2">
+        <v>39</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.25110900000000003</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.30023100000000003</v>
+      </c>
+      <c r="T5" s="2">
+        <v>-0.103867</v>
+      </c>
+      <c r="W5" s="2">
+        <v>9.1406000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
         <v>9</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.78124099999999996</v>
-      </c>
-      <c r="F6" s="1">
-        <v>39</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0.25545699999999999</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0.26663500000000001</v>
-      </c>
-      <c r="T6" s="1">
-        <v>-6.9821999999999995E-2</v>
-      </c>
-      <c r="W6" s="1">
-        <v>0.103533</v>
+      <c r="B6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.81152999999999997</v>
+      </c>
+      <c r="F6" s="2">
+        <v>39</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.25351899999999999</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.25533499999999998</v>
+      </c>
+      <c r="T6" s="2">
+        <v>-8.2708000000000004E-2</v>
+      </c>
+      <c r="W6" s="2">
+        <v>0.110767</v>
       </c>
     </row>
     <row r="7" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1184,22 +1181,22 @@
         <v>25</v>
       </c>
       <c r="E7" s="2">
-        <v>0.83091400000000004</v>
+        <v>0.86122699999999996</v>
       </c>
       <c r="F7" s="2">
         <v>39</v>
       </c>
       <c r="H7" s="2">
-        <v>0.22995599999999999</v>
+        <v>0.227404</v>
       </c>
       <c r="J7" s="2">
-        <v>0.22110299999999999</v>
+        <v>0.214003</v>
       </c>
       <c r="T7" s="2">
-        <v>-8.1207000000000001E-2</v>
+        <v>-9.4329999999999997E-2</v>
       </c>
       <c r="W7" s="2">
-        <v>0.134964</v>
+        <v>0.140623</v>
       </c>
     </row>
     <row r="8" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1216,22 +1213,22 @@
         <v>25</v>
       </c>
       <c r="E8" s="2">
-        <v>0.83039200000000002</v>
+        <v>0.86063999999999996</v>
       </c>
       <c r="F8" s="2">
         <v>39</v>
       </c>
       <c r="H8" s="2">
-        <v>0.209034</v>
+        <v>0.202019</v>
       </c>
       <c r="J8" s="2">
-        <v>0.18949299999999999</v>
+        <v>0.185222</v>
       </c>
       <c r="T8" s="2">
-        <v>-7.2798000000000002E-2</v>
+        <v>-9.1495999999999994E-2</v>
       </c>
       <c r="W8" s="2">
-        <v>0.155255</v>
+        <v>0.16211500000000001</v>
       </c>
     </row>
     <row r="9" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1248,22 +1245,22 @@
         <v>25</v>
       </c>
       <c r="E9" s="2">
-        <v>0.80541099999999999</v>
+        <v>0.84137899999999999</v>
       </c>
       <c r="F9" s="2">
         <v>39</v>
       </c>
       <c r="H9" s="2">
-        <v>0.181009</v>
+        <v>0.17253399999999999</v>
       </c>
       <c r="J9" s="2">
-        <v>0.16072400000000001</v>
+        <v>0.157194</v>
       </c>
       <c r="T9" s="2">
-        <v>-7.7051999999999995E-2</v>
+        <v>-9.8020999999999997E-2</v>
       </c>
       <c r="W9" s="2">
-        <v>0.17763599999999999</v>
+        <v>0.18493299999999999</v>
       </c>
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1280,22 +1277,22 @@
         <v>25</v>
       </c>
       <c r="E10" s="1">
-        <v>0.74098399999999998</v>
+        <v>0.77576000000000001</v>
       </c>
       <c r="F10" s="1">
         <v>39</v>
       </c>
       <c r="H10" s="1">
-        <v>0.122271</v>
+        <v>0.112855</v>
       </c>
       <c r="J10" s="1">
-        <v>0.118911</v>
+        <v>0.115158</v>
       </c>
       <c r="T10" s="1">
-        <v>-8.5614999999999997E-2</v>
+        <v>-0.10852299999999999</v>
       </c>
       <c r="W10" s="1">
-        <v>0.21676100000000001</v>
+        <v>0.22470399999999999</v>
       </c>
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1312,54 +1309,54 @@
         <v>25</v>
       </c>
       <c r="E11" s="1">
-        <v>0.74096399999999996</v>
+        <v>0.77570899999999998</v>
       </c>
       <c r="F11" s="1">
         <v>39</v>
       </c>
       <c r="H11" s="1">
-        <v>0.12228700000000001</v>
+        <v>0.112873</v>
       </c>
       <c r="J11" s="1">
-        <v>0.118935</v>
+        <v>0.11518399999999999</v>
       </c>
       <c r="T11" s="1">
-        <v>-8.5573999999999997E-2</v>
+        <v>-0.108475</v>
       </c>
       <c r="W11" s="1">
-        <v>0.21674299999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A12">
+        <v>0.22468399999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
         <v>15</v>
       </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12">
-        <v>0.68231600000000003</v>
-      </c>
-      <c r="F12">
-        <v>39</v>
-      </c>
-      <c r="H12">
-        <v>8.7953000000000003E-2</v>
-      </c>
-      <c r="J12">
-        <v>0.10459300000000001</v>
-      </c>
-      <c r="T12">
-        <v>-9.4798999999999994E-2</v>
-      </c>
-      <c r="W12">
-        <v>0.235571</v>
+      <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.723383</v>
+      </c>
+      <c r="F12" s="1">
+        <v>39</v>
+      </c>
+      <c r="H12" s="1">
+        <v>7.8547000000000006E-2</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.10152899999999999</v>
+      </c>
+      <c r="T12" s="1">
+        <v>-0.117657</v>
+      </c>
+      <c r="W12" s="1">
+        <v>0.243118</v>
       </c>
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1376,22 +1373,22 @@
         <v>25</v>
       </c>
       <c r="E13" s="1">
-        <v>0.72216100000000005</v>
+        <v>0.76764900000000003</v>
       </c>
       <c r="F13" s="1">
         <v>39</v>
       </c>
       <c r="H13" s="1">
-        <v>0.10709100000000001</v>
+        <v>9.6906000000000006E-2</v>
       </c>
       <c r="J13" s="1">
-        <v>0.101229</v>
+        <v>9.7351999999999994E-2</v>
       </c>
       <c r="T13" s="1">
-        <v>-0.108456</v>
+        <v>-0.13284599999999999</v>
       </c>
       <c r="W13" s="1">
-        <v>0.23707700000000001</v>
+        <v>0.245111</v>
       </c>
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1408,22 +1405,22 @@
         <v>25</v>
       </c>
       <c r="E14" s="1">
-        <v>0.71923099999999995</v>
+        <v>0.76605100000000004</v>
       </c>
       <c r="F14" s="1">
         <v>39</v>
       </c>
       <c r="H14" s="1">
-        <v>0.113277</v>
+        <v>0.103066</v>
       </c>
       <c r="J14" s="1">
-        <v>0.10260900000000001</v>
+        <v>9.8295999999999994E-2</v>
       </c>
       <c r="T14" s="1">
-        <v>-0.10813200000000001</v>
+        <v>-0.133158</v>
       </c>
       <c r="W14" s="1">
-        <v>0.23519000000000001</v>
+        <v>0.24342900000000001</v>
       </c>
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1440,54 +1437,54 @@
         <v>25</v>
       </c>
       <c r="E15" s="1">
-        <v>0.70457800000000004</v>
+        <v>0.74078599999999994</v>
       </c>
       <c r="F15" s="1">
         <v>39</v>
       </c>
       <c r="H15" s="1">
-        <v>9.7383999999999998E-2</v>
+        <v>8.7994000000000003E-2</v>
       </c>
       <c r="J15" s="1">
-        <v>8.9220999999999995E-2</v>
+        <v>8.4862000000000007E-2</v>
       </c>
       <c r="T15" s="1">
-        <v>-0.108802</v>
+        <v>-0.134241</v>
       </c>
       <c r="W15" s="1">
-        <v>0.24613499999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A16">
+        <v>0.25429099999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
         <v>19</v>
       </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16">
-        <v>0.67163700000000004</v>
-      </c>
-      <c r="F16">
-        <v>39</v>
-      </c>
-      <c r="H16">
-        <v>7.7272999999999994E-2</v>
-      </c>
-      <c r="J16">
-        <v>7.8023999999999996E-2</v>
-      </c>
-      <c r="T16">
-        <v>-0.112064</v>
-      </c>
-      <c r="W16">
-        <v>0.25718400000000002</v>
+      <c r="B16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.71775999999999995</v>
+      </c>
+      <c r="F16" s="1">
+        <v>39</v>
+      </c>
+      <c r="H16" s="1">
+        <v>6.8387000000000003E-2</v>
+      </c>
+      <c r="J16" s="1">
+        <v>7.5551999999999994E-2</v>
+      </c>
+      <c r="T16" s="1">
+        <v>-0.13480900000000001</v>
+      </c>
+      <c r="W16" s="1">
+        <v>0.26394099999999998</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.2">
@@ -1504,19 +1501,19 @@
         <v>25</v>
       </c>
       <c r="E17">
-        <v>0.63230900000000001</v>
+        <v>0.69430599999999998</v>
       </c>
       <c r="F17">
         <v>39</v>
       </c>
       <c r="J17">
-        <v>9.7057000000000004E-2</v>
+        <v>9.0540999999999996E-2</v>
       </c>
       <c r="T17">
-        <v>-0.112479</v>
+        <v>-0.13474900000000001</v>
       </c>
       <c r="W17">
-        <v>0.27217599999999997</v>
+        <v>0.27787699999999999</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.2">
@@ -1533,19 +1530,19 @@
         <v>25</v>
       </c>
       <c r="E18">
-        <v>0.55127700000000002</v>
+        <v>0.61718899999999999</v>
       </c>
       <c r="F18">
         <v>39</v>
       </c>
       <c r="J18">
-        <v>7.5744000000000006E-2</v>
+        <v>7.0538000000000003E-2</v>
       </c>
       <c r="T18">
-        <v>-0.10363799999999999</v>
+        <v>-0.12397</v>
       </c>
       <c r="W18">
-        <v>0.279613</v>
+        <v>0.28449600000000003</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.2">
@@ -1562,19 +1559,19 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>0.40646599999999999</v>
+        <v>0.42595</v>
       </c>
       <c r="F19">
         <v>39</v>
       </c>
       <c r="J19">
-        <v>5.5921999999999999E-2</v>
+        <v>5.1829E-2</v>
       </c>
       <c r="T19">
-        <v>-8.8555999999999996E-2</v>
+        <v>-0.107185</v>
       </c>
       <c r="W19">
-        <v>0.28550399999999998</v>
+        <v>0.28970099999999999</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.2">
@@ -1591,19 +1588,19 @@
         <v>25</v>
       </c>
       <c r="E20">
-        <v>0.41193200000000002</v>
+        <v>0.42885299999999998</v>
       </c>
       <c r="F20">
         <v>39</v>
       </c>
       <c r="J20">
-        <v>5.7938999999999997E-2</v>
+        <v>5.4133000000000001E-2</v>
       </c>
       <c r="T20">
-        <v>-9.7919999999999993E-2</v>
+        <v>-0.116262</v>
       </c>
       <c r="W20">
-        <v>0.28845399999999999</v>
+        <v>0.29236299999999998</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.2">
@@ -1620,19 +1617,19 @@
         <v>25</v>
       </c>
       <c r="E21">
-        <v>0.36729699999999998</v>
+        <v>0.42952699999999999</v>
       </c>
       <c r="F21">
         <v>39</v>
       </c>
       <c r="J21">
-        <v>5.5685999999999999E-2</v>
+        <v>5.0777999999999997E-2</v>
       </c>
       <c r="T21">
-        <v>-0.100672</v>
+        <v>-0.122433</v>
       </c>
       <c r="W21">
-        <v>0.292074</v>
+        <v>0.29701100000000002</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.2">
@@ -1649,19 +1646,19 @@
         <v>25</v>
       </c>
       <c r="E22">
-        <v>0.371504</v>
+        <v>0.43293100000000001</v>
       </c>
       <c r="F22">
         <v>39</v>
       </c>
       <c r="J22">
-        <v>5.8016999999999999E-2</v>
+        <v>5.2781000000000002E-2</v>
       </c>
       <c r="T22">
-        <v>-0.100831</v>
+        <v>-0.12278799999999999</v>
       </c>
       <c r="W22">
-        <v>0.29075499999999999</v>
+        <v>0.29583500000000001</v>
       </c>
     </row>
   </sheetData>
